--- a/Dados/ativos_sem_taxa.xlsx
+++ b/Dados/ativos_sem_taxa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sub Classe</t>
   </si>
@@ -37,55 +37,22 @@
     <t>Vencimento_final</t>
   </si>
   <si>
-    <t>Títulos Privados</t>
-  </si>
-  <si>
     <t>Debêntures</t>
   </si>
   <si>
-    <t>AGIBANK</t>
-  </si>
-  <si>
-    <t>BANCO XP</t>
-  </si>
-  <si>
     <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
   </si>
   <si>
-    <t>BMG SEG</t>
-  </si>
-  <si>
     <t>JERA2026</t>
   </si>
   <si>
-    <t>REAL FIM</t>
-  </si>
-  <si>
-    <t>CDB3251WXH0</t>
-  </si>
-  <si>
-    <t>LF00240072E</t>
-  </si>
-  <si>
     <t>HAPV21</t>
   </si>
   <si>
     <t>BRHAPVDBS014</t>
   </si>
   <si>
-    <t>614522-CDB</t>
-  </si>
-  <si>
     <t>362409-HAP</t>
-  </si>
-  <si>
-    <t>353997-N L</t>
-  </si>
-  <si>
-    <t>2027-03-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2026-03-02 00:00:00</t>
   </si>
   <si>
     <t>2026-07-10 00:00:00</t>
@@ -446,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,122 +447,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
